--- a/tests/test_data/test_ru.xlsx
+++ b/tests/test_data/test_ru.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t xml:space="preserve">Строительные нормы и правила</t>
   </si>
@@ -163,16 +163,16 @@
     <t xml:space="preserve">В 1988 году для жилищного товарищества в подвале здания было спроектировано помещение сауны (архитектор Ханну Лехто). В 1994 году балконы здания было спроектировано оборудованными стеклянными стенами, которые можно сдвигать в сторону (архитектор Тапани Вирккала).</t>
   </si>
   <si>
-    <t xml:space="preserve">Архитектура здания хорошо продумана и закончена. Здание хорошо сохранилось в своем первоначальном состоянии или внесенные изменения были успешно адаптированы к существующему зданию.</t>
+    <t xml:space="preserve">Reasoning 1 ru</t>
   </si>
   <si>
     <t xml:space="preserve">бетон</t>
   </si>
   <si>
-    <t xml:space="preserve">Пятиэтажное здание с двумя цокольными этажами и мансардой.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Здание покрыто листовым металлом. Фасады - светлая крашенная штукатурка. Плинтус имеет террасную штукатурку. Балюстрады балконов выполнены из алюминиевых листов с узкими рифлениями.</t>
+    <t xml:space="preserve">description ru 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade ru 1</t>
   </si>
   <si>
     <t xml:space="preserve">09103100030009001</t>
@@ -214,10 +214,13 @@
     <t xml:space="preserve">многоквартирные дома, детские сады</t>
   </si>
   <si>
-    <t xml:space="preserve">Пятиэтажное здание с одним цокольным этажом.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Здание покрыто жестью. Фасады выполнены из светлого шлифованного бетона.</t>
+    <t xml:space="preserve">детские сады</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description ru 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade ru 2</t>
   </si>
   <si>
     <t xml:space="preserve">09103100030001001</t>
@@ -241,16 +244,16 @@
     <t xml:space="preserve">В 1996 году окна и балконные двери здания были заменены дерево-алюминиевыми конструкциями (Fenestra Oy).</t>
   </si>
   <si>
-    <t xml:space="preserve">Архитектура здания хорошо продумана и закончена. Здание частично сохранилось в первозданном виде.</t>
+    <t xml:space="preserve">Reasoning 3 ru</t>
   </si>
   <si>
     <t xml:space="preserve">кирпич</t>
   </si>
   <si>
-    <t xml:space="preserve">Пятиэтажное здание с одним подвалом и мансардой.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фасады отделаны светло-коричневой штукатуркой. Бетонный постамент окрашен в коричневый цвет. Наружные двери обрамлены клинкером.</t>
+    <t xml:space="preserve">description ru 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade ru 3</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,6 +285,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,6 +345,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,7 +428,7 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -584,7 +597,7 @@
       <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="1" t="s">
@@ -652,7 +665,7 @@
         <v>63</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -665,11 +678,11 @@
       <c r="Z3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>64</v>
+      <c r="AA3" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="1" t="n">
@@ -681,13 +694,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -714,19 +727,19 @@
         <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="1" t="s">
@@ -736,10 +749,10 @@
         <v>45</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -748,13 +761,13 @@
         <v>48</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="AA4" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="AB4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="1" t="n">
